--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H2">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I2">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J2">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2721246666666667</v>
+        <v>0.2226943333333333</v>
       </c>
       <c r="N2">
-        <v>0.816374</v>
+        <v>0.668083</v>
       </c>
       <c r="O2">
-        <v>0.1154759865526449</v>
+        <v>0.09471013227150191</v>
       </c>
       <c r="P2">
-        <v>0.1154759865526449</v>
+        <v>0.09471013227150192</v>
       </c>
       <c r="Q2">
-        <v>10.041303051494</v>
+        <v>8.227300585635444</v>
       </c>
       <c r="R2">
-        <v>90.37172746344599</v>
+        <v>74.045705270719</v>
       </c>
       <c r="S2">
-        <v>0.08359243900046176</v>
+        <v>0.07888373745488642</v>
       </c>
       <c r="T2">
-        <v>0.08359243900046179</v>
+        <v>0.07888373745488643</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H3">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I3">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J3">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.49577</v>
       </c>
       <c r="O3">
-        <v>0.3530263126440755</v>
+        <v>0.3538103900551972</v>
       </c>
       <c r="P3">
-        <v>0.3530263126440755</v>
+        <v>0.3538103900551972</v>
       </c>
       <c r="Q3">
-        <v>30.69767400336999</v>
+        <v>30.73487872406777</v>
       </c>
       <c r="R3">
-        <v>276.2790660303299</v>
+        <v>276.61390851661</v>
       </c>
       <c r="S3">
-        <v>0.2555538288629751</v>
+        <v>0.2946874346866809</v>
       </c>
       <c r="T3">
-        <v>0.2555538288629752</v>
+        <v>0.294687434686681</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H4">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I4">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J4">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.252499666666667</v>
+        <v>1.296707666666667</v>
       </c>
       <c r="N4">
-        <v>3.757499</v>
+        <v>3.890123</v>
       </c>
       <c r="O4">
-        <v>0.5314977008032795</v>
+        <v>0.5514794776733007</v>
       </c>
       <c r="P4">
-        <v>0.5314977008032796</v>
+        <v>0.5514794776733009</v>
       </c>
       <c r="Q4">
-        <v>46.21679055761899</v>
+        <v>47.90604047115988</v>
       </c>
       <c r="R4">
-        <v>415.9511150185709</v>
+        <v>431.154364240439</v>
       </c>
       <c r="S4">
-        <v>0.3847482966774983</v>
+        <v>0.4593253254449149</v>
       </c>
       <c r="T4">
-        <v>0.3847482966774984</v>
+        <v>0.459325325444915</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>10.124457</v>
       </c>
       <c r="I5">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J5">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2721246666666667</v>
+        <v>0.2226943333333333</v>
       </c>
       <c r="N5">
-        <v>0.816374</v>
+        <v>0.668083</v>
       </c>
       <c r="O5">
-        <v>0.1154759865526449</v>
+        <v>0.09471013227150191</v>
       </c>
       <c r="P5">
-        <v>0.1154759865526449</v>
+        <v>0.09471013227150192</v>
       </c>
       <c r="Q5">
-        <v>0.9183714954353334</v>
+        <v>0.7515530673256666</v>
       </c>
       <c r="R5">
-        <v>8.265343458918</v>
+        <v>6.763977605930999</v>
       </c>
       <c r="S5">
-        <v>0.007645313842063441</v>
+        <v>0.00720592547084549</v>
       </c>
       <c r="T5">
-        <v>0.007645313842063442</v>
+        <v>0.00720592547084549</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>10.124457</v>
       </c>
       <c r="I6">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J6">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.49577</v>
       </c>
       <c r="O6">
-        <v>0.3530263126440755</v>
+        <v>0.3538103900551972</v>
       </c>
       <c r="P6">
-        <v>0.3530263126440755</v>
+        <v>0.3538103900551972</v>
       </c>
       <c r="Q6">
         <v>2.807590671876667</v>
@@ -818,10 +818,10 @@
         <v>25.26831604689</v>
       </c>
       <c r="S6">
-        <v>0.02337279840809075</v>
+        <v>0.0269193088469128</v>
       </c>
       <c r="T6">
-        <v>0.02337279840809075</v>
+        <v>0.0269193088469128</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>10.124457</v>
       </c>
       <c r="I7">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J7">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.252499666666667</v>
+        <v>1.296707666666667</v>
       </c>
       <c r="N7">
-        <v>3.757499</v>
+        <v>3.890123</v>
       </c>
       <c r="O7">
-        <v>0.5314977008032795</v>
+        <v>0.5514794776733007</v>
       </c>
       <c r="P7">
-        <v>0.5314977008032796</v>
+        <v>0.5514794776733009</v>
       </c>
       <c r="Q7">
-        <v>4.226959672560333</v>
+        <v>4.376153670912333</v>
       </c>
       <c r="R7">
-        <v>38.04263705304299</v>
+        <v>39.385383038211</v>
       </c>
       <c r="S7">
-        <v>0.03518884618598771</v>
+        <v>0.04195876322316518</v>
       </c>
       <c r="T7">
-        <v>0.03518884618598772</v>
+        <v>0.04195876322316519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H8">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I8">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J8">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2721246666666667</v>
+        <v>0.2226943333333333</v>
       </c>
       <c r="N8">
-        <v>0.816374</v>
+        <v>0.668083</v>
       </c>
       <c r="O8">
-        <v>0.1154759865526449</v>
+        <v>0.09471013227150191</v>
       </c>
       <c r="P8">
-        <v>0.1154759865526449</v>
+        <v>0.09471013227150192</v>
       </c>
       <c r="Q8">
-        <v>2.911548616435333</v>
+        <v>0.8990850939012224</v>
       </c>
       <c r="R8">
-        <v>26.203937547918</v>
+        <v>8.091765845111</v>
       </c>
       <c r="S8">
-        <v>0.02423823371011967</v>
+        <v>0.00862046934577</v>
       </c>
       <c r="T8">
-        <v>0.02423823371011968</v>
+        <v>0.008620469345770002</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H9">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I9">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J9">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.49577</v>
       </c>
       <c r="O9">
-        <v>0.3530263126440755</v>
+        <v>0.3538103900551972</v>
       </c>
       <c r="P9">
-        <v>0.3530263126440755</v>
+        <v>0.3538103900551972</v>
       </c>
       <c r="Q9">
-        <v>8.901013126876663</v>
+        <v>3.358728787898889</v>
       </c>
       <c r="R9">
-        <v>80.10911814188998</v>
+        <v>30.22855909109</v>
       </c>
       <c r="S9">
-        <v>0.07409968537300964</v>
+        <v>0.03220364652160344</v>
       </c>
       <c r="T9">
-        <v>0.07409968537300965</v>
+        <v>0.03220364652160344</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H10">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I10">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J10">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.252499666666667</v>
+        <v>1.296707666666667</v>
       </c>
       <c r="N10">
-        <v>3.757499</v>
+        <v>3.890123</v>
       </c>
       <c r="O10">
-        <v>0.5314977008032795</v>
+        <v>0.5514794776733007</v>
       </c>
       <c r="P10">
-        <v>0.5314977008032796</v>
+        <v>0.5514794776733009</v>
       </c>
       <c r="Q10">
-        <v>13.40089348106033</v>
+        <v>5.235205210643445</v>
       </c>
       <c r="R10">
-        <v>120.608041329543</v>
+        <v>47.11684689579101</v>
       </c>
       <c r="S10">
-        <v>0.1115605579397935</v>
+        <v>0.05019538900522065</v>
       </c>
       <c r="T10">
-        <v>0.1115605579397935</v>
+        <v>0.05019538900522066</v>
       </c>
     </row>
   </sheetData>
